--- a/geopolrisk-py/tests/sample trade data.xlsx
+++ b/geopolrisk-py/tests/sample trade data.xlsx
@@ -8,19 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akoyamparamb\Documents\GitHub\geopolrisk\geopolrisk-py\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B56D1F-EDF5-4F20-B5B6-7E3A7F0DAD7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{372327E1-1F2D-49C6-A986-7DC77E26EEFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-4830" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-4830" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
+    <sheet name="template" sheetId="2" r:id="rId2"/>
+    <sheet name="Information" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="104">
   <si>
     <t>Classification</t>
   </si>
@@ -290,13 +292,69 @@
   </si>
   <si>
     <t>TradeQuantity</t>
+  </si>
+  <si>
+    <t># Copyright (C) 2023 University of Bordeaux, CyVi Group &amp; Anish Koyamparambath
+# This file is part of geopolrisk-py library.
+#
+# geopolrisk-py is free software: you can redistribute it and/or modify
+# it under the terms of the GNU General Public License as published by
+# the Free Software Foundation, either version 3 of the License, or
+# (at your option) any later version.
+#
+# geopolrisk-py is distributed in the hope that it will be useful,
+# but WITHOUT ANY WARRANTY; without even the implied warranty of
+# MERCHANTABILITY or FITNESS FOR A PARTICULAR PURPOSE.  See the
+# GNU General Public License for more details.
+#
+# You should have received a copy of the GNU General Public License
+# along with geopolrisk-py.  If not, see &lt;https://www.gnu.org/licenses/&gt;.</t>
+  </si>
+  <si>
+    <t>sheetname</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>DO NOT DELETE THIS SHEET</t>
+  </si>
+  <si>
+    <t>Used for testing the functionality of the trade data</t>
+  </si>
+  <si>
+    <t>template</t>
+  </si>
+  <si>
+    <t>USE THIS SHEET AS TEMPLATE</t>
+  </si>
+  <si>
+    <t>Copy this sheet to another workbook and provide the data</t>
+  </si>
+  <si>
+    <t>Columns marked in yellow are mandatory</t>
+  </si>
+  <si>
+    <t>ptCode is the ISO alpha code for the country. See comtrade reporter json for information</t>
+  </si>
+  <si>
+    <t>ptTitle is the ISO name of the country</t>
+  </si>
+  <si>
+    <t>TradeQuantity is the imported quantity in kilograms</t>
+  </si>
+  <si>
+    <t>Information</t>
+  </si>
+  <si>
+    <t>LICENSE AND INFORMATION</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -431,8 +489,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF6A9955"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -612,6 +676,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -773,8 +843,21 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1132,8 +1215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection sqref="A1:AI1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2948,4 +3031,604 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63693AC8-2843-4C72-BB57-31C815858887}">
+  <dimension ref="A1:AI1"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Z1" sqref="Z1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E91E053C-16D0-4ADE-862B-6CBA080693EE}">
+  <dimension ref="A1:Q23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D22" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="D22:J22"/>
+    <mergeCell ref="A1:J15"/>
+    <mergeCell ref="D17:J17"/>
+    <mergeCell ref="D18:J18"/>
+    <mergeCell ref="D19:J19"/>
+    <mergeCell ref="D20:J20"/>
+    <mergeCell ref="D21:J21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>